--- a/data/周映射表.xlsx
+++ b/data/周映射表.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\GoodGoodStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE3DA3-CC65-4854-83FE-5189EAB38A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32060255-AD50-4DCC-A8E8-19C292EDF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="周报202410" sheetId="1" r:id="rId1"/>
-    <sheet name="周报202411" sheetId="2" r:id="rId2"/>
+    <sheet name="202410" sheetId="1" r:id="rId1"/>
+    <sheet name="202411" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>W1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,16 +486,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB37DC-183A-49C2-B189-E9E4CEEA0154}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43D006-6C9A-4074-BBF0-5CC8F118F8C7}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>202410</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20241101</v>
+      </c>
+      <c r="B2">
+        <v>20241104</v>
+      </c>
+      <c r="C2">
+        <v>20241111</v>
+      </c>
+      <c r="D2">
+        <v>20241118</v>
+      </c>
+      <c r="E2">
+        <v>20241125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20241105</v>
+      </c>
+      <c r="C3">
+        <v>20241112</v>
+      </c>
+      <c r="D3">
+        <v>20241119</v>
+      </c>
+      <c r="E3">
+        <v>20241126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>20241106</v>
+      </c>
+      <c r="C4">
+        <v>20241113</v>
+      </c>
+      <c r="D4">
+        <v>20241120</v>
+      </c>
+      <c r="E4">
+        <v>20241127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20241107</v>
+      </c>
+      <c r="C5">
+        <v>20241114</v>
+      </c>
+      <c r="D5">
+        <v>20241121</v>
+      </c>
+      <c r="E5">
+        <v>20241128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>20241108</v>
+      </c>
+      <c r="C6">
+        <v>20241115</v>
+      </c>
+      <c r="D6">
+        <v>20241122</v>
+      </c>
+      <c r="E6">
+        <v>20241129</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/周映射表.xlsx
+++ b/data/周映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\GoodGoodStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32060255-AD50-4DCC-A8E8-19C292EDF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779718D4-10F5-49CE-9B31-91A8F71B5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>W1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>W4</t>
+  </si>
+  <si>
+    <t>W4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -383,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -395,7 +399,7 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,10 +410,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>202411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20241008</v>
       </c>
@@ -422,8 +429,11 @@
       <c r="D2">
         <v>20241028</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>20241029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20241009</v>
       </c>
@@ -433,11 +443,11 @@
       <c r="C3">
         <v>20241022</v>
       </c>
-      <c r="D3">
-        <v>20241029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>20241030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20241010</v>
       </c>
@@ -447,11 +457,11 @@
       <c r="C4">
         <v>20241023</v>
       </c>
-      <c r="D4">
-        <v>20241030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>20241031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20241011</v>
       </c>
@@ -461,11 +471,8 @@
       <c r="C5">
         <v>20241024</v>
       </c>
-      <c r="D5">
-        <v>20241031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20241012</v>
       </c>
@@ -474,9 +481,6 @@
       </c>
       <c r="C6">
         <v>20241025</v>
-      </c>
-      <c r="D6">
-        <v>20241101</v>
       </c>
     </row>
   </sheetData>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43D006-6C9A-4074-BBF0-5CC8F118F8C7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,71 +527,79 @@
         <v>20241101</v>
       </c>
       <c r="B2">
-        <v>20241104</v>
-      </c>
-      <c r="C2">
-        <v>20241111</v>
-      </c>
-      <c r="D2">
-        <v>20241118</v>
-      </c>
-      <c r="E2">
-        <v>20241125</v>
-      </c>
+        <v>20241029</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3">
-        <v>20241105</v>
+        <v>20241104</v>
       </c>
       <c r="C3">
-        <v>20241112</v>
+        <v>20241111</v>
       </c>
       <c r="D3">
-        <v>20241119</v>
+        <v>20241118</v>
       </c>
       <c r="E3">
-        <v>20241126</v>
+        <v>20241125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4">
-        <v>20241106</v>
+        <v>20241105</v>
       </c>
       <c r="C4">
-        <v>20241113</v>
+        <v>20241112</v>
       </c>
       <c r="D4">
-        <v>20241120</v>
+        <v>20241119</v>
       </c>
       <c r="E4">
-        <v>20241127</v>
+        <v>20241126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>20241107</v>
+        <v>20241106</v>
       </c>
       <c r="C5">
-        <v>20241114</v>
+        <v>20241113</v>
       </c>
       <c r="D5">
-        <v>20241121</v>
+        <v>20241120</v>
       </c>
       <c r="E5">
-        <v>20241128</v>
+        <v>20241127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
+        <v>20241107</v>
+      </c>
+      <c r="C6">
+        <v>20241114</v>
+      </c>
+      <c r="D6">
+        <v>20241121</v>
+      </c>
+      <c r="E6">
+        <v>20241128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7">
         <v>20241108</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>20241115</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>20241122</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>20241129</v>
       </c>
     </row>

--- a/data/周映射表.xlsx
+++ b/data/周映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\GoodGoodStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779718D4-10F5-49CE-9B31-91A8F71B5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE09D5-8BF7-4AA4-8849-1318289040E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,19 +387,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,11 +412,8 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
-        <v>202411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20241008</v>
       </c>
@@ -429,11 +426,8 @@
       <c r="D2">
         <v>20241028</v>
       </c>
-      <c r="E2">
-        <v>20241029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20241009</v>
       </c>
@@ -443,11 +437,11 @@
       <c r="C3">
         <v>20241022</v>
       </c>
-      <c r="E3">
-        <v>20241030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>20241029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20241010</v>
       </c>
@@ -457,11 +451,11 @@
       <c r="C4">
         <v>20241023</v>
       </c>
-      <c r="E4">
-        <v>20241031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>20241030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20241011</v>
       </c>
@@ -471,8 +465,11 @@
       <c r="C5">
         <v>20241024</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>20241031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20241012</v>
       </c>
@@ -481,6 +478,9 @@
       </c>
       <c r="C6">
         <v>20241025</v>
+      </c>
+      <c r="D6">
+        <v>20241101</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43D006-6C9A-4074-BBF0-5CC8F118F8C7}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,79 +527,71 @@
         <v>20241101</v>
       </c>
       <c r="B2">
-        <v>20241029</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>20241104</v>
+      </c>
+      <c r="C2">
+        <v>20241111</v>
+      </c>
+      <c r="D2">
+        <v>20241118</v>
+      </c>
+      <c r="E2">
+        <v>20241125</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3">
-        <v>20241104</v>
+        <v>20241105</v>
       </c>
       <c r="C3">
-        <v>20241111</v>
+        <v>20241112</v>
       </c>
       <c r="D3">
-        <v>20241118</v>
+        <v>20241119</v>
       </c>
       <c r="E3">
-        <v>20241125</v>
+        <v>20241126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4">
-        <v>20241105</v>
+        <v>20241106</v>
       </c>
       <c r="C4">
-        <v>20241112</v>
+        <v>20241113</v>
       </c>
       <c r="D4">
-        <v>20241119</v>
+        <v>20241120</v>
       </c>
       <c r="E4">
-        <v>20241126</v>
+        <v>20241127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>20241106</v>
+        <v>20241107</v>
       </c>
       <c r="C5">
-        <v>20241113</v>
+        <v>20241114</v>
       </c>
       <c r="D5">
-        <v>20241120</v>
+        <v>20241121</v>
       </c>
       <c r="E5">
-        <v>20241127</v>
+        <v>20241128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>20241107</v>
+        <v>20241108</v>
       </c>
       <c r="C6">
-        <v>20241114</v>
+        <v>20241115</v>
       </c>
       <c r="D6">
-        <v>20241121</v>
+        <v>20241122</v>
       </c>
       <c r="E6">
-        <v>20241128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7">
-        <v>20241108</v>
-      </c>
-      <c r="C7">
-        <v>20241115</v>
-      </c>
-      <c r="D7">
-        <v>20241122</v>
-      </c>
-      <c r="E7">
         <v>20241129</v>
       </c>
     </row>
